--- a/ig/sd-correction-slicing-condition/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-correction-slicing-condition/StructureDefinition-eclaire-researchstudy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$92</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3183" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3445" uniqueCount="551">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T10:12:56+00:00</t>
+    <t>2023-10-19T14:17:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -460,499 +460,495 @@
     <t>Allows identification of the research study as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
+    <t>Slicing pour les différents identifiants de l'essai clinique</t>
+  </si>
+  <si>
+    <t>No BRIDG mapping (although there is  DocumentVersion.identifier &gt; StudyProtocolDocumentVersion, this is arguably a different semantic)</t>
+  </si>
+  <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Organization's Unique Protocol ID; Secondary IDs</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimary</t>
+  </si>
+  <si>
+    <t>idPrimary</t>
+  </si>
+  <si>
+    <t>Identifiant primaire de l'essai clinique / Primary Registry and Trial Identifying Number</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimary.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimary.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimary.use</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>official</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimary.type</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimary.system</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimary.value</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimary.period</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimary.assigner</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary</t>
+  </si>
+  <si>
+    <t>idSecondary</t>
+  </si>
+  <si>
+    <t>identifiants secondaires / Secondary Identifying Numbers (e.g., protocol number) if available.  Also include other trial registries that have issued an identifying number to this trial. There is no limit on the number of Secondary identifying numbers that can be provided.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.use</t>
+  </si>
+  <si>
+    <t>secondary</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.type</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.system</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.value</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.period</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.assigner</t>
+  </si>
+  <si>
+    <t>ResearchStudy.title</t>
+  </si>
+  <si>
+    <t>Nom scientifique de l'étude / Scientific Title</t>
+  </si>
+  <si>
+    <t>A short, descriptive user-friendly label for the study.</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
+    <t>No BRIDG mapping (although there is  StudyProtocolDocumentVersionPublicTitle this is arguably a different semantic: title of a document vs title of a research study)</t>
+  </si>
+  <si>
+    <t>Brief Title</t>
+  </si>
+  <si>
+    <t>ResearchStudy.protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(PlanDefinition)
+</t>
+  </si>
+  <si>
+    <t>Steps followed in executing study</t>
+  </si>
+  <si>
+    <t>The set of steps expected to be performed as part of the execution of the study.</t>
+  </si>
+  <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
+    <t>StudyProtocolDocumentVersionPublicTitle.name</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target</t>
+  </si>
+  <si>
+    <t>Interventions; Arm/Intervention Cross-Reference</t>
+  </si>
+  <si>
+    <t>ResearchStudy.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">container
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ResearchStudy)
+</t>
+  </si>
+  <si>
+    <t>Part of larger study</t>
+  </si>
+  <si>
+    <t>A larger research study of which this particular study is a component or step.</t>
+  </si>
+  <si>
+    <t>Allows breaking a study into components (e.g. by study site) each with their own PI, status, enrollment, etc.</t>
+  </si>
+  <si>
+    <t>CompanionStudyRelationship</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>ResearchStudy.status</t>
+  </si>
+  <si>
+    <t>Statut de l'essai / Study Status</t>
+  </si>
+  <si>
+    <t>The current state of the study.</t>
+  </si>
+  <si>
+    <t>Codes that convey the current status of the research study.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/research-study-status|4.0.1</t>
+  </si>
+  <si>
+    <t>StudyOverallStatus.code</t>
+  </si>
+  <si>
+    <t>.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>ResearchStudy.primaryPurposeType</t>
+  </si>
+  <si>
+    <t>treatment | prevention | diagnostic | supportive-care | screening | health-services-research | basic-science | device-feasibility</t>
+  </si>
+  <si>
+    <t>The type of study based upon the intent of the study's activities. A classification of the intent of the study.</t>
+  </si>
+  <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+  </si>
+  <si>
+    <t>Codes for the main intent of the study.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/research-study-prim-purp-type</t>
+  </si>
+  <si>
+    <t>StudyProtocolVersion.primaryPurposeTypeCode</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>ResearchStudy.phase</t>
+  </si>
+  <si>
+    <t>Phase de l'essai / Study type : phase</t>
+  </si>
+  <si>
+    <t>The stage in the progression of a therapy from initial experimental use in humans in clinical trials to post-market evaluation.</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/ValueSet/eclaire-study-phase-vs</t>
+  </si>
+  <si>
+    <t>StudyProtocolVersion.phaseCode</t>
+  </si>
+  <si>
+    <t>Study Phase</t>
+  </si>
+  <si>
+    <t>ResearchStudy.category</t>
+  </si>
+  <si>
+    <t>Type d'essai  / Study type : type of study</t>
+  </si>
+  <si>
+    <t>Codes categorizing the type of study such as investigational vs. observational, type of blinding, type of randomization, safety vs. efficacy, etc.</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/ValueSet/eclaire-category-vs</t>
+  </si>
+  <si>
+    <t>InterventionalStudyProtocolVersion; InterventionalStudyProtocol.allocationCode; InterventionalStudyProtocol.blindedRoleCode; InterventionalStudyProtocol.blindingSchemaCode; InterventionalStudyProtocol.controlTypeCode</t>
+  </si>
+  <si>
+    <t>Study Type; Primary Purpose; Interventional Model; Masking; Allocation; study Classification; Observational Study Model; Time Perspective; Biospecimen Retention</t>
+  </si>
+  <si>
+    <t>ResearchStudy.focus</t>
+  </si>
+  <si>
+    <t>Drugs, devices, etc. under study</t>
+  </si>
+  <si>
+    <t>The medication(s), food(s), therapy(ies), device(s) or other concerns or interventions that the study is seeking to gain more information about.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes for medications, devices and other interventions.</t>
+  </si>
+  <si>
+    <t>InterventionalStudyProtocol.interventionTypeCode</t>
+  </si>
+  <si>
+    <t>Focus of Study</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition</t>
+  </si>
+  <si>
+    <t>Sujet concerné /  Problem(s) Studied exemple code MedDRA</t>
+  </si>
+  <si>
+    <t>The condition that is the focus of the study.  For example, In a study to examine risk factors for Lupus, might have as an inclusion criterion "healthy volunteer", but the target condition code would be a Lupus SNOMED code.</t>
+  </si>
+  <si>
+    <t>Identification of the condition or diagnosis.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:use}
 </t>
   </si>
   <si>
-    <t>Slicing pour les différents identifiants de l'essai clinique</t>
-  </si>
-  <si>
-    <t>No BRIDG mapping (although there is  DocumentVersion.identifier &gt; StudyProtocolDocumentVersion, this is arguably a different semantic)</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Organization's Unique Protocol ID; Secondary IDs</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idPrimary</t>
-  </si>
-  <si>
-    <t>idPrimary</t>
-  </si>
-  <si>
-    <t>Identifiant primaire de l'essai clinique / Primary Registry and Trial Identifying Number</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idPrimary.id</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idPrimary.extension</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idPrimary.use</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>official</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idPrimary.type</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idPrimary.system</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idPrimary.value</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idPrimary.period</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idPrimary.assigner</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondary</t>
-  </si>
-  <si>
-    <t>idSecondary</t>
-  </si>
-  <si>
-    <t>identifiants secondaires / Secondary Identifying Numbers (e.g., protocol number) if available.  Also include other trial registries that have issued an identifying number to this trial. There is no limit on the number of Secondary identifying numbers that can be provided.</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondary.id</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondary.extension</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondary.use</t>
-  </si>
-  <si>
-    <t>secondary</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondary.type</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondary.system</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondary.value</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondary.period</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondary.assigner</t>
-  </si>
-  <si>
-    <t>ResearchStudy.title</t>
-  </si>
-  <si>
-    <t>Nom scientifique de l'étude / Scientific Title</t>
-  </si>
-  <si>
-    <t>A short, descriptive user-friendly label for the study.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
-    <t>No BRIDG mapping (although there is  StudyProtocolDocumentVersionPublicTitle this is arguably a different semantic: title of a document vs title of a research study)</t>
-  </si>
-  <si>
-    <t>Brief Title</t>
-  </si>
-  <si>
-    <t>ResearchStudy.protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(PlanDefinition)
-</t>
-  </si>
-  <si>
-    <t>Steps followed in executing study</t>
-  </si>
-  <si>
-    <t>The set of steps expected to be performed as part of the execution of the study.</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
-    <t>StudyProtocolDocumentVersionPublicTitle.name</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DEFN].target</t>
-  </si>
-  <si>
-    <t>Interventions; Arm/Intervention Cross-Reference</t>
-  </si>
-  <si>
-    <t>ResearchStudy.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">container
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(ResearchStudy)
-</t>
-  </si>
-  <si>
-    <t>Part of larger study</t>
-  </si>
-  <si>
-    <t>A larger research study of which this particular study is a component or step.</t>
-  </si>
-  <si>
-    <t>Allows breaking a study into components (e.g. by study site) each with their own PI, status, enrollment, etc.</t>
-  </si>
-  <si>
-    <t>CompanionStudyRelationship</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>ResearchStudy.status</t>
-  </si>
-  <si>
-    <t>Statut de l'essai / Study Status</t>
-  </si>
-  <si>
-    <t>The current state of the study.</t>
-  </si>
-  <si>
-    <t>Codes that convey the current status of the research study.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/research-study-status|4.0.1</t>
-  </si>
-  <si>
-    <t>StudyOverallStatus.code</t>
-  </si>
-  <si>
-    <t>.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>ResearchStudy.primaryPurposeType</t>
-  </si>
-  <si>
-    <t>treatment | prevention | diagnostic | supportive-care | screening | health-services-research | basic-science | device-feasibility</t>
-  </si>
-  <si>
-    <t>The type of study based upon the intent of the study's activities. A classification of the intent of the study.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
-    <t>Codes for the main intent of the study.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/research-study-prim-purp-type</t>
-  </si>
-  <si>
-    <t>StudyProtocolVersion.primaryPurposeTypeCode</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>ResearchStudy.phase</t>
-  </si>
-  <si>
-    <t>Phase de l'essai / Study type : phase</t>
-  </si>
-  <si>
-    <t>The stage in the progression of a therapy from initial experimental use in humans in clinical trials to post-market evaluation.</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/ValueSet/eclaire-study-phase-vs</t>
-  </si>
-  <si>
-    <t>StudyProtocolVersion.phaseCode</t>
-  </si>
-  <si>
-    <t>Study Phase</t>
-  </si>
-  <si>
-    <t>ResearchStudy.category</t>
-  </si>
-  <si>
-    <t>Type d'essai  / Study type : type of study</t>
-  </si>
-  <si>
-    <t>Codes categorizing the type of study such as investigational vs. observational, type of blinding, type of randomization, safety vs. efficacy, etc.</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/ValueSet/eclaire-category-vs</t>
-  </si>
-  <si>
-    <t>InterventionalStudyProtocolVersion; InterventionalStudyProtocol.allocationCode; InterventionalStudyProtocol.blindedRoleCode; InterventionalStudyProtocol.blindingSchemaCode; InterventionalStudyProtocol.controlTypeCode</t>
-  </si>
-  <si>
-    <t>Study Type; Primary Purpose; Interventional Model; Masking; Allocation; study Classification; Observational Study Model; Time Perspective; Biospecimen Retention</t>
-  </si>
-  <si>
-    <t>ResearchStudy.focus</t>
-  </si>
-  <si>
-    <t>Drugs, devices, etc. under study</t>
-  </si>
-  <si>
-    <t>The medication(s), food(s), therapy(ies), device(s) or other concerns or interventions that the study is seeking to gain more information about.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes for medications, devices and other interventions.</t>
-  </si>
-  <si>
-    <t>InterventionalStudyProtocol.interventionTypeCode</t>
-  </si>
-  <si>
-    <t>Focus of Study</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition</t>
-  </si>
-  <si>
-    <t>Sujet concerné /  Problem(s) Studied exemple code MedDRA</t>
-  </si>
-  <si>
-    <t>The condition that is the focus of the study.  For example, In a study to examine risk factors for Lupus, might have as an inclusion criterion "healthy volunteer", but the target condition code would be a Lupus SNOMED code.</t>
-  </si>
-  <si>
-    <t>Identification of the condition or diagnosis.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:id}
-</t>
-  </si>
-  <si>
-    <t>Slicing pour apporter des précisions sur le sujet / Health Condition(s) or Problem(s) Studied</t>
+    <t>Slicing pour apporter des précisions sur le sujet / Health Condition(s) or Problem(s) Studied. Dans le CTIS, il y a un champ texte ouvert (obligatoire) pour indiquer la pathologie et éventuellement des précisons. Un code MedDRA peut-être ajouté mais il est optionnel</t>
   </si>
   <si>
     <t>StudyCondition.code</t>
@@ -1014,6 +1010,151 @@
   </si>
   <si>
     <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.system</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/mdr</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.version</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.code</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.display</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.userSelected</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
   </si>
   <si>
     <t>ResearchStudy.condition:medDRACondition.text</t>
@@ -1893,7 +2034,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO85"/>
+  <dimension ref="A1:AO92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1902,8 +2043,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.40234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="41.0234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="60.55078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.16796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="25.26171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -1928,7 +2069,7 @@
     <col min="26" max="26" width="71.046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="11.08203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="84.87890625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="244.3984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -3656,10 +3797,10 @@
         <v>37</v>
       </c>
       <c r="AB15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC15" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>37</v>
@@ -3683,30 +3824,30 @@
         <v>60</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>145</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>134</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>37</v>
@@ -3731,7 +3872,7 @@
         <v>135</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>137</v>
@@ -3802,27 +3943,27 @@
         <v>60</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>145</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3845,13 +3986,13 @@
         <v>37</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3902,7 +4043,7 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>35</v>
@@ -3934,10 +4075,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3966,7 +4107,7 @@
         <v>96</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>98</v>
@@ -4019,7 +4160,7 @@
         <v>101</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>35</v>
@@ -4051,10 +4192,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4062,7 +4203,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>47</v>
@@ -4080,16 +4221,16 @@
         <v>70</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>37</v>
@@ -4099,46 +4240,46 @@
         <v>37</v>
       </c>
       <c r="S19" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X19" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="T19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X19" t="s" s="2">
+      <c r="Y19" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="Z19" t="s" s="2">
+      <c r="AA19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>35</v>
@@ -4159,7 +4300,7 @@
         <v>61</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>37</v>
@@ -4170,10 +4311,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4196,19 +4337,19 @@
         <v>48</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>37</v>
@@ -4233,31 +4374,31 @@
         <v>37</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="Z20" t="s" s="2">
+      <c r="AA20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>35</v>
@@ -4275,10 +4416,10 @@
         <v>37</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>37</v>
@@ -4289,10 +4430,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4318,16 +4459,16 @@
         <v>63</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>37</v>
@@ -4340,43 +4481,43 @@
         <v>37</v>
       </c>
       <c r="T21" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>35</v>
@@ -4394,10 +4535,10 @@
         <v>37</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>37</v>
@@ -4408,10 +4549,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4434,16 +4575,16 @@
         <v>48</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4457,43 +4598,43 @@
         <v>37</v>
       </c>
       <c r="T22" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>35</v>
@@ -4511,10 +4652,10 @@
         <v>37</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>37</v>
@@ -4525,10 +4666,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4551,16 +4692,16 @@
         <v>48</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4610,7 +4751,7 @@
         <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>35</v>
@@ -4622,16 +4763,16 @@
         <v>59</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AK23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>37</v>
@@ -4642,10 +4783,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4668,16 +4809,16 @@
         <v>48</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4727,7 +4868,7 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>35</v>
@@ -4739,16 +4880,16 @@
         <v>59</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AK24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>37</v>
@@ -4759,13 +4900,13 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>134</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>37</v>
@@ -4790,7 +4931,7 @@
         <v>135</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>137</v>
@@ -4861,27 +5002,27 @@
         <v>60</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>145</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4904,13 +5045,13 @@
         <v>37</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4961,7 +5102,7 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>35</v>
@@ -4993,10 +5134,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5025,7 +5166,7 @@
         <v>96</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N27" t="s" s="2">
         <v>98</v>
@@ -5078,7 +5219,7 @@
         <v>101</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>35</v>
@@ -5110,10 +5251,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5121,7 +5262,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>47</v>
@@ -5139,16 +5280,16 @@
         <v>70</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>37</v>
@@ -5158,7 +5299,7 @@
         <v>37</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>37</v>
@@ -5173,31 +5314,31 @@
         <v>37</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Y28" t="s" s="2">
+      <c r="Z28" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="Z28" t="s" s="2">
+      <c r="AA28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>35</v>
@@ -5218,7 +5359,7 @@
         <v>61</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>37</v>
@@ -5229,10 +5370,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5255,19 +5396,19 @@
         <v>48</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>37</v>
@@ -5292,31 +5433,31 @@
         <v>37</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="Z29" t="s" s="2">
+      <c r="AA29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>35</v>
@@ -5334,10 +5475,10 @@
         <v>37</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>37</v>
@@ -5348,10 +5489,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5377,16 +5518,16 @@
         <v>63</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>37</v>
@@ -5399,43 +5540,43 @@
         <v>37</v>
       </c>
       <c r="T30" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>35</v>
@@ -5453,10 +5594,10 @@
         <v>37</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>37</v>
@@ -5467,10 +5608,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5493,16 +5634,16 @@
         <v>48</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5516,43 +5657,43 @@
         <v>37</v>
       </c>
       <c r="T31" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>35</v>
@@ -5570,10 +5711,10 @@
         <v>37</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>37</v>
@@ -5584,10 +5725,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5610,16 +5751,16 @@
         <v>48</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5669,7 +5810,7 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>35</v>
@@ -5681,16 +5822,16 @@
         <v>59</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AK32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>37</v>
@@ -5701,10 +5842,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5727,16 +5868,16 @@
         <v>48</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5786,7 +5927,7 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>35</v>
@@ -5798,16 +5939,16 @@
         <v>59</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AK33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>37</v>
@@ -5818,10 +5959,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5844,16 +5985,16 @@
         <v>48</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5903,7 +6044,7 @@
         <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>35</v>
@@ -5918,7 +6059,7 @@
         <v>60</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>37</v>
@@ -5927,7 +6068,7 @@
         <v>68</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>37</v>
@@ -5935,10 +6076,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5961,16 +6102,16 @@
         <v>48</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6020,7 +6161,7 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>35</v>
@@ -6032,19 +6173,19 @@
         <v>59</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AL35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>37</v>
@@ -6052,14 +6193,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6078,19 +6219,19 @@
         <v>48</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="O36" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>37</v>
@@ -6139,7 +6280,7 @@
         <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>35</v>
@@ -6151,16 +6292,16 @@
         <v>59</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>37</v>
@@ -6171,10 +6312,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6200,13 +6341,13 @@
         <v>70</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="N37" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6232,14 +6373,14 @@
         <v>37</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Z37" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AA37" t="s" s="2">
         <v>37</v>
       </c>
@@ -6256,7 +6397,7 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>47</v>
@@ -6271,27 +6412,27 @@
         <v>60</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AL37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO37" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>263</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6314,16 +6455,16 @@
         <v>48</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6349,14 +6490,14 @@
         <v>37</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="Z38" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>269</v>
-      </c>
       <c r="AA38" t="s" s="2">
         <v>37</v>
       </c>
@@ -6373,7 +6514,7 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>35</v>
@@ -6388,13 +6529,13 @@
         <v>60</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>37</v>
@@ -6405,10 +6546,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6431,16 +6572,16 @@
         <v>48</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M39" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="N39" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6466,11 +6607,11 @@
         <v>37</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>37</v>
@@ -6488,7 +6629,7 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>35</v>
@@ -6503,16 +6644,16 @@
         <v>60</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>37</v>
@@ -6520,10 +6661,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6546,16 +6687,16 @@
         <v>48</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M40" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="N40" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6581,11 +6722,11 @@
         <v>37</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>37</v>
@@ -6603,7 +6744,7 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>35</v>
@@ -6618,16 +6759,16 @@
         <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>37</v>
@@ -6635,10 +6776,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6661,16 +6802,16 @@
         <v>48</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>287</v>
-      </c>
       <c r="N41" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6696,11 +6837,11 @@
         <v>37</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="Y41" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="Z41" t="s" s="2">
         <v>37</v>
       </c>
@@ -6720,7 +6861,7 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>35</v>
@@ -6735,27 +6876,27 @@
         <v>60</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AL41" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>292</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6778,16 +6919,16 @@
         <v>48</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>295</v>
-      </c>
       <c r="N42" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6813,22 +6954,22 @@
         <v>37</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="Z42" t="s" s="2">
+      <c r="AA42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB42" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AA42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB42" t="s" s="2">
+      <c r="AC42" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>37</v>
@@ -6837,7 +6978,7 @@
         <v>101</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>35</v>
@@ -6852,30 +6993,30 @@
         <v>60</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AL42" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="AO42" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="C43" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>37</v>
@@ -6897,16 +7038,16 @@
         <v>48</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6932,14 +7073,14 @@
         <v>37</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Z43" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="AA43" t="s" s="2">
         <v>37</v>
       </c>
@@ -6956,7 +7097,7 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>35</v>
@@ -6971,27 +7112,27 @@
         <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AL43" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="AO43" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="B44" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6999,7 +7140,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>47</v>
@@ -7014,13 +7155,13 @@
         <v>37</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7032,7 +7173,7 @@
         <v>37</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>37</v>
@@ -7071,7 +7212,7 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
@@ -7103,10 +7244,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7135,7 +7276,7 @@
         <v>96</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>98</v>
@@ -7188,7 +7329,7 @@
         <v>101</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>35</v>
@@ -7220,10 +7361,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B46" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7246,19 +7387,19 @@
         <v>48</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>37</v>
@@ -7307,7 +7448,7 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>35</v>
@@ -7325,10 +7466,10 @@
         <v>37</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>37</v>
@@ -7339,10 +7480,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7362,23 +7503,19 @@
         <v>37</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>322</v>
-      </c>
       <c r="M47" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>37</v>
       </c>
@@ -7426,7 +7563,7 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>326</v>
+        <v>153</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>35</v>
@@ -7435,19 +7572,19 @@
         <v>47</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>327</v>
+        <v>37</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>328</v>
+        <v>68</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>37</v>
@@ -7458,16 +7595,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7477,25 +7612,25 @@
         <v>36</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>331</v>
+        <v>96</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>295</v>
+        <v>156</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>267</v>
+        <v>98</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7521,31 +7656,31 @@
         <v>37</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>288</v>
+        <v>37</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>296</v>
+        <v>37</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>297</v>
+        <v>37</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>293</v>
+        <v>157</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>35</v>
@@ -7557,30 +7692,30 @@
         <v>59</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>300</v>
+        <v>37</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>272</v>
+        <v>61</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>301</v>
+        <v>37</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>292</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7588,7 +7723,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>47</v>
@@ -7600,19 +7735,23 @@
         <v>37</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>152</v>
+        <v>325</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>37</v>
       </c>
@@ -7621,7 +7760,7 @@
         <v>37</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>37</v>
@@ -7660,7 +7799,7 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>154</v>
+        <v>330</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>35</v>
@@ -7669,19 +7808,19 @@
         <v>47</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>37</v>
+        <v>331</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>68</v>
+        <v>332</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>37</v>
@@ -7692,21 +7831,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>37</v>
@@ -7715,19 +7854,19 @@
         <v>37</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>96</v>
+        <v>335</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>157</v>
+        <v>336</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>98</v>
+        <v>337</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7765,40 +7904,40 @@
         <v>37</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>158</v>
+        <v>338</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>37</v>
+        <v>339</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>61</v>
+        <v>340</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>37</v>
@@ -7809,10 +7948,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7823,7 +7962,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>37</v>
@@ -7835,19 +7974,19 @@
         <v>48</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>312</v>
+        <v>70</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>315</v>
+        <v>236</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>37</v>
@@ -7896,13 +8035,13 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>59</v>
@@ -7914,10 +8053,10 @@
         <v>37</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>37</v>
@@ -7928,10 +8067,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7954,19 +8093,19 @@
         <v>48</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>324</v>
+        <v>236</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>37</v>
@@ -8015,7 +8154,7 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>35</v>
@@ -8033,10 +8172,10 @@
         <v>37</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>37</v>
@@ -8047,10 +8186,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8061,10 +8200,10 @@
         <v>35</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>37</v>
@@ -8073,16 +8212,20 @@
         <v>48</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>37</v>
       </c>
@@ -8130,13 +8273,13 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>59</v>
@@ -8145,16 +8288,16 @@
         <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>341</v>
+        <v>37</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>37</v>
+        <v>365</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>68</v>
+        <v>366</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>342</v>
+        <v>37</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>37</v>
@@ -8162,10 +8305,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8185,19 +8328,23 @@
         <v>37</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>152</v>
+        <v>369</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>37</v>
       </c>
@@ -8245,7 +8392,7 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>154</v>
+        <v>373</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>35</v>
@@ -8254,19 +8401,19 @@
         <v>47</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>37</v>
+        <v>374</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>68</v>
+        <v>375</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>37</v>
@@ -8277,14 +8424,16 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="D55" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8294,25 +8443,25 @@
         <v>36</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>96</v>
+        <v>378</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>157</v>
+        <v>294</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>98</v>
+        <v>266</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8338,31 +8487,31 @@
         <v>37</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>37</v>
+        <v>287</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>37</v>
+        <v>295</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>37</v>
+        <v>296</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>158</v>
+        <v>292</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>35</v>
@@ -8374,34 +8523,32 @@
         <v>59</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>37</v>
+        <v>299</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>37</v>
+        <v>270</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>37</v>
+        <v>300</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>37</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>37</v>
       </c>
@@ -8413,7 +8560,7 @@
         <v>47</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>37</v>
@@ -8422,13 +8569,13 @@
         <v>37</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>347</v>
+        <v>150</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>348</v>
+        <v>151</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>349</v>
+        <v>152</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8440,7 +8587,7 @@
         <v>37</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>37</v>
+        <v>380</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>37</v>
@@ -8479,19 +8626,19 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>37</v>
@@ -8500,7 +8647,7 @@
         <v>37</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>37</v>
@@ -8511,26 +8658,24 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>37</v>
@@ -8539,15 +8684,17 @@
         <v>37</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>352</v>
+        <v>95</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>353</v>
+        <v>96</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>37</v>
@@ -8584,19 +8731,19 @@
         <v>37</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>35</v>
@@ -8617,7 +8764,7 @@
         <v>37</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>37</v>
@@ -8628,14 +8775,12 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
         <v>37</v>
       </c>
@@ -8644,28 +8789,32 @@
         <v>35</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J58" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="I58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="K58" t="s" s="2">
-        <v>357</v>
+        <v>311</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>358</v>
+        <v>312</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>37</v>
       </c>
@@ -8713,7 +8862,7 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>158</v>
+        <v>316</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>35</v>
@@ -8725,16 +8874,16 @@
         <v>59</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>37</v>
+        <v>317</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>37</v>
@@ -8745,20 +8894,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>47</v>
@@ -8770,19 +8917,23 @@
         <v>37</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>362</v>
+        <v>150</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>37</v>
       </c>
@@ -8830,28 +8981,28 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>158</v>
+        <v>373</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>37</v>
+        <v>374</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>37</v>
+        <v>375</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>37</v>
@@ -8862,10 +9013,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8876,10 +9027,10 @@
         <v>35</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>37</v>
@@ -8888,17 +9039,15 @@
         <v>48</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>151</v>
+        <v>385</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>37</v>
@@ -8947,13 +9096,13 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>59</v>
@@ -8962,7 +9111,7 @@
         <v>60</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>37</v>
+        <v>388</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>37</v>
@@ -8971,7 +9120,7 @@
         <v>68</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>37</v>
+        <v>389</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>37</v>
@@ -8979,10 +9128,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8993,7 +9142,7 @@
         <v>35</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>37</v>
@@ -9002,16 +9151,16 @@
         <v>37</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>371</v>
+        <v>150</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>372</v>
+        <v>151</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>373</v>
+        <v>152</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9062,28 +9211,28 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>374</v>
+        <v>153</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>375</v>
+        <v>37</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>376</v>
+        <v>37</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>377</v>
+        <v>68</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>37</v>
@@ -9094,14 +9243,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9120,16 +9269,16 @@
         <v>37</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>379</v>
+        <v>95</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>380</v>
+        <v>96</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>381</v>
+        <v>156</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>382</v>
+        <v>98</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9167,19 +9316,19 @@
         <v>37</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>378</v>
+        <v>157</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>35</v>
@@ -9191,19 +9340,19 @@
         <v>59</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>383</v>
+        <v>37</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>384</v>
+        <v>37</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>37</v>
@@ -9211,12 +9360,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="D63" t="s" s="2">
         <v>37</v>
       </c>
@@ -9225,29 +9376,27 @@
         <v>35</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>173</v>
+        <v>394</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>37</v>
@@ -9272,10 +9421,10 @@
         <v>37</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>288</v>
+        <v>37</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>388</v>
+        <v>37</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>37</v>
@@ -9296,7 +9445,7 @@
         <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>385</v>
+        <v>157</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>35</v>
@@ -9308,19 +9457,19 @@
         <v>59</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>389</v>
+        <v>37</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>272</v>
+        <v>37</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>390</v>
+        <v>37</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>37</v>
@@ -9328,12 +9477,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="C64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="D64" t="s" s="2">
         <v>37</v>
       </c>
@@ -9342,7 +9493,7 @@
         <v>35</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>48</v>
@@ -9351,20 +9502,18 @@
         <v>37</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>173</v>
+        <v>399</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>37</v>
@@ -9389,13 +9538,13 @@
         <v>37</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>178</v>
+        <v>37</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>394</v>
+        <v>37</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>395</v>
+        <v>37</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>37</v>
@@ -9413,7 +9562,7 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>391</v>
+        <v>157</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>35</v>
@@ -9425,16 +9574,16 @@
         <v>59</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>396</v>
+        <v>37</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>272</v>
+        <v>37</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>37</v>
@@ -9445,12 +9594,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="D65" t="s" s="2">
         <v>37</v>
       </c>
@@ -9471,17 +9622,15 @@
         <v>37</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>37</v>
@@ -9530,31 +9679,31 @@
         <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>397</v>
+        <v>157</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>402</v>
+        <v>37</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>403</v>
+        <v>37</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>37</v>
@@ -9562,43 +9711,43 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="D66" t="s" s="2">
-        <v>405</v>
+        <v>37</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>37</v>
@@ -9647,7 +9796,7 @@
         <v>37</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>404</v>
+        <v>157</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>35</v>
@@ -9659,34 +9808,34 @@
         <v>59</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>219</v>
+        <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>410</v>
+        <v>37</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>411</v>
+        <v>37</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>412</v>
+        <v>37</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>413</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>415</v>
+        <v>37</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9705,16 +9854,16 @@
         <v>48</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>207</v>
+        <v>415</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9764,7 +9913,7 @@
         <v>37</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>35</v>
@@ -9776,30 +9925,30 @@
         <v>59</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>209</v>
+        <v>60</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>418</v>
+        <v>37</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>419</v>
+        <v>37</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>420</v>
+        <v>68</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>421</v>
+        <v>37</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>422</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9810,10 +9959,10 @@
         <v>35</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>37</v>
@@ -9822,17 +9971,15 @@
         <v>48</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>214</v>
+        <v>418</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>37</v>
@@ -9881,42 +10028,42 @@
         <v>37</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>219</v>
+        <v>422</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>426</v>
+        <v>37</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>37</v>
+        <v>423</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>428</v>
+        <v>37</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>429</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9927,7 +10074,7 @@
         <v>35</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>37</v>
@@ -9936,19 +10083,19 @@
         <v>37</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>244</v>
+        <v>429</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9998,42 +10145,42 @@
         <v>37</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>219</v>
+        <v>60</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>435</v>
+        <v>68</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>429</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10047,7 +10194,7 @@
         <v>36</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>37</v>
@@ -10056,16 +10203,16 @@
         <v>48</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>438</v>
+        <v>172</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10091,10 +10238,10 @@
         <v>37</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>37</v>
+        <v>287</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>37</v>
+        <v>435</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>37</v>
@@ -10115,7 +10262,7 @@
         <v>37</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>35</v>
@@ -10127,30 +10274,30 @@
         <v>59</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>219</v>
+        <v>60</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>37</v>
+        <v>270</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>435</v>
+        <v>271</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>443</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10161,10 +10308,10 @@
         <v>35</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>37</v>
@@ -10173,16 +10320,16 @@
         <v>48</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10208,13 +10355,13 @@
         <v>37</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>288</v>
+        <v>177</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>37</v>
@@ -10232,13 +10379,13 @@
         <v>37</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>59</v>
@@ -10247,27 +10394,27 @@
         <v>60</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AM71" t="s" s="2">
-        <v>272</v>
-      </c>
       <c r="AN71" t="s" s="2">
-        <v>450</v>
+        <v>37</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>451</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10278,10 +10425,10 @@
         <v>35</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>37</v>
@@ -10290,16 +10437,16 @@
         <v>37</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10349,13 +10496,13 @@
         <v>37</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>59</v>
@@ -10364,16 +10511,16 @@
         <v>60</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>458</v>
+        <v>68</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>37</v>
@@ -10381,14 +10528,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>37</v>
+        <v>452</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10398,24 +10545,26 @@
         <v>36</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>37</v>
@@ -10464,7 +10613,7 @@
         <v>37</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>35</v>
@@ -10476,34 +10625,34 @@
         <v>59</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>60</v>
+        <v>218</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>68</v>
+        <v>458</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>37</v>
+        <v>460</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>37</v>
+        <v>462</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10519,18 +10668,20 @@
         <v>37</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>152</v>
+        <v>463</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>37</v>
@@ -10579,7 +10730,7 @@
         <v>37</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>154</v>
+        <v>461</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>35</v>
@@ -10588,65 +10739,65 @@
         <v>47</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>37</v>
+        <v>208</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>37</v>
+        <v>465</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>37</v>
+        <v>466</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>68</v>
+        <v>467</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>37</v>
+        <v>468</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>37</v>
+        <v>469</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>95</v>
+        <v>213</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>96</v>
+        <v>471</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>157</v>
+        <v>472</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>98</v>
+        <v>243</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10684,90 +10835,88 @@
         <v>37</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>158</v>
+        <v>470</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>103</v>
+        <v>218</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>37</v>
+        <v>473</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>61</v>
+        <v>474</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>37</v>
+        <v>475</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>37</v>
+        <v>476</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>468</v>
+        <v>37</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>48</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>95</v>
+        <v>478</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>37</v>
       </c>
@@ -10815,42 +10964,42 @@
         <v>37</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>103</v>
+        <v>218</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>37</v>
+        <v>481</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>61</v>
+        <v>482</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>37</v>
+        <v>483</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>37</v>
+        <v>476</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10858,31 +11007,31 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>151</v>
+        <v>485</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10932,42 +11081,42 @@
         <v>37</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>60</v>
+        <v>218</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>68</v>
+        <v>482</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>37</v>
+        <v>490</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10987,19 +11136,19 @@
         <v>37</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11025,13 +11174,13 @@
         <v>37</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>37</v>
+        <v>287</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>37</v>
+        <v>494</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>37</v>
+        <v>495</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>37</v>
@@ -11049,7 +11198,7 @@
         <v>37</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>35</v>
@@ -11064,27 +11213,27 @@
         <v>60</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="AL78" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AM78" t="s" s="2">
-        <v>272</v>
-      </c>
       <c r="AN78" t="s" s="2">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>37</v>
+        <v>498</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11095,7 +11244,7 @@
         <v>35</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>37</v>
@@ -11107,16 +11256,16 @@
         <v>37</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>151</v>
+        <v>500</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>237</v>
+        <v>503</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11166,13 +11315,13 @@
         <v>37</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>59</v>
@@ -11181,16 +11330,16 @@
         <v>60</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>68</v>
+        <v>505</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>486</v>
+        <v>37</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>37</v>
@@ -11198,10 +11347,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11224,13 +11373,13 @@
         <v>37</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>460</v>
+        <v>507</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11281,7 +11430,7 @@
         <v>37</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>35</v>
@@ -11296,7 +11445,7 @@
         <v>60</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>37</v>
@@ -11305,7 +11454,7 @@
         <v>68</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>37</v>
+        <v>511</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>37</v>
@@ -11313,10 +11462,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11339,13 +11488,13 @@
         <v>37</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11396,7 +11545,7 @@
         <v>37</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>35</v>
@@ -11428,10 +11577,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11460,7 +11609,7 @@
         <v>96</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>98</v>
@@ -11513,7 +11662,7 @@
         <v>101</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>35</v>
@@ -11545,14 +11694,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>468</v>
+        <v>515</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11574,10 +11723,10 @@
         <v>95</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>469</v>
+        <v>516</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>470</v>
+        <v>517</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>98</v>
@@ -11632,7 +11781,7 @@
         <v>37</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>471</v>
+        <v>518</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>35</v>
@@ -11664,10 +11813,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11675,7 +11824,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>47</v>
@@ -11690,16 +11839,16 @@
         <v>37</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>496</v>
+        <v>521</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11749,10 +11898,10 @@
         <v>37</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>47</v>
@@ -11764,7 +11913,7 @@
         <v>60</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>37</v>
@@ -11773,7 +11922,7 @@
         <v>68</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>37</v>
+        <v>523</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>37</v>
@@ -11781,10 +11930,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>498</v>
+        <v>524</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>498</v>
+        <v>524</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11807,16 +11956,16 @@
         <v>37</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>499</v>
+        <v>525</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>500</v>
+        <v>526</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -11842,13 +11991,13 @@
         <v>37</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>501</v>
+        <v>37</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>502</v>
+        <v>37</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>37</v>
@@ -11866,7 +12015,7 @@
         <v>37</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>498</v>
+        <v>524</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>35</v>
@@ -11881,23 +12030,840 @@
         <v>60</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="AL85" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AM85" t="s" s="2">
-        <v>272</v>
-      </c>
       <c r="AN85" t="s" s="2">
-        <v>37</v>
+        <v>528</v>
       </c>
       <c r="AO85" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="P90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO92" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO85">
+  <autoFilter ref="A1:AO92">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11907,7 +12873,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI84">
+  <conditionalFormatting sqref="A2:AI91">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/sd-correction-slicing-condition/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-correction-slicing-condition/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19T14:17:53+00:00</t>
+    <t>2023-10-19T15:00:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -460,6 +460,10 @@
     <t>Allows identification of the research study as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:use}
+</t>
+  </si>
+  <si>
     <t>Slicing pour les différents identifiants de l'essai clinique</t>
   </si>
   <si>
@@ -944,11 +948,8 @@
     <t>http://hl7.org/fhir/ValueSet/condition-code</t>
   </si>
   <si>
-    <t xml:space="preserve">value:use}
-</t>
-  </si>
-  <si>
-    <t>Slicing pour apporter des précisions sur le sujet / Health Condition(s) or Problem(s) Studied. Dans le CTIS, il y a un champ texte ouvert (obligatoire) pour indiquer la pathologie et éventuellement des précisons. Un code MedDRA peut-être ajouté mais il est optionnel</t>
+    <t xml:space="preserve">Slicing pour apporter des précisions sur le sujet / Health Condition(s) or Problem(s) Studied. Dans le CTIS, il y a un champ texte ouvert (obligatoire) pour indiquer la pathologie et éventuellement des précisons. Un code MedDRA peut-être ajouté mais il est optionnel.
+Ainsi la slice medDRACondition contient un code meddra, la slice diseaseCondition contient un texte libre. </t>
   </si>
   <si>
     <t>StudyCondition.code</t>
@@ -2069,7 +2070,7 @@
     <col min="26" max="26" width="71.046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="11.08203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="244.3984375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="244.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -3797,10 +3798,10 @@
         <v>37</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>37</v>
@@ -3824,30 +3825,30 @@
         <v>60</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>134</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>37</v>
@@ -3872,7 +3873,7 @@
         <v>135</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>137</v>
@@ -3943,27 +3944,27 @@
         <v>60</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3986,13 +3987,13 @@
         <v>37</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4043,7 +4044,7 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>35</v>
@@ -4075,10 +4076,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4107,7 +4108,7 @@
         <v>96</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>98</v>
@@ -4160,7 +4161,7 @@
         <v>101</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>35</v>
@@ -4192,10 +4193,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4203,7 +4204,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>47</v>
@@ -4221,16 +4222,16 @@
         <v>70</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>37</v>
@@ -4240,7 +4241,7 @@
         <v>37</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>37</v>
@@ -4255,13 +4256,13 @@
         <v>37</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>37</v>
@@ -4279,7 +4280,7 @@
         <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>35</v>
@@ -4300,7 +4301,7 @@
         <v>61</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>37</v>
@@ -4311,10 +4312,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4337,19 +4338,19 @@
         <v>48</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>37</v>
@@ -4374,13 +4375,13 @@
         <v>37</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>37</v>
@@ -4398,7 +4399,7 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>35</v>
@@ -4416,10 +4417,10 @@
         <v>37</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>37</v>
@@ -4430,10 +4431,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4459,16 +4460,16 @@
         <v>63</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>37</v>
@@ -4481,7 +4482,7 @@
         <v>37</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>37</v>
@@ -4517,7 +4518,7 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>35</v>
@@ -4535,10 +4536,10 @@
         <v>37</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>37</v>
@@ -4549,10 +4550,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4575,16 +4576,16 @@
         <v>48</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4598,7 +4599,7 @@
         <v>37</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>37</v>
@@ -4634,7 +4635,7 @@
         <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>35</v>
@@ -4652,10 +4653,10 @@
         <v>37</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>37</v>
@@ -4666,10 +4667,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4692,16 +4693,16 @@
         <v>48</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4751,7 +4752,7 @@
         <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>35</v>
@@ -4763,16 +4764,16 @@
         <v>59</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>37</v>
@@ -4783,10 +4784,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4809,16 +4810,16 @@
         <v>48</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4868,7 +4869,7 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>35</v>
@@ -4880,16 +4881,16 @@
         <v>59</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>37</v>
@@ -4900,13 +4901,13 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>134</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>37</v>
@@ -4931,7 +4932,7 @@
         <v>135</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>137</v>
@@ -5002,27 +5003,27 @@
         <v>60</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5045,13 +5046,13 @@
         <v>37</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5102,7 +5103,7 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>35</v>
@@ -5134,10 +5135,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5166,7 +5167,7 @@
         <v>96</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N27" t="s" s="2">
         <v>98</v>
@@ -5219,7 +5220,7 @@
         <v>101</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>35</v>
@@ -5251,10 +5252,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5262,7 +5263,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>47</v>
@@ -5280,16 +5281,16 @@
         <v>70</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>37</v>
@@ -5299,7 +5300,7 @@
         <v>37</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>37</v>
@@ -5314,13 +5315,13 @@
         <v>37</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>37</v>
@@ -5338,7 +5339,7 @@
         <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>35</v>
@@ -5359,7 +5360,7 @@
         <v>61</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>37</v>
@@ -5370,10 +5371,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5396,19 +5397,19 @@
         <v>48</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>37</v>
@@ -5433,13 +5434,13 @@
         <v>37</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>37</v>
@@ -5457,7 +5458,7 @@
         <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>35</v>
@@ -5475,10 +5476,10 @@
         <v>37</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>37</v>
@@ -5489,10 +5490,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5518,16 +5519,16 @@
         <v>63</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>37</v>
@@ -5540,7 +5541,7 @@
         <v>37</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>37</v>
@@ -5576,7 +5577,7 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>35</v>
@@ -5594,10 +5595,10 @@
         <v>37</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>37</v>
@@ -5608,10 +5609,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5634,16 +5635,16 @@
         <v>48</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5657,7 +5658,7 @@
         <v>37</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>37</v>
@@ -5693,7 +5694,7 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>35</v>
@@ -5711,10 +5712,10 @@
         <v>37</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>37</v>
@@ -5725,10 +5726,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5751,16 +5752,16 @@
         <v>48</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5810,7 +5811,7 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>35</v>
@@ -5822,16 +5823,16 @@
         <v>59</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>37</v>
@@ -5842,10 +5843,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5868,16 +5869,16 @@
         <v>48</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5927,7 +5928,7 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>35</v>
@@ -5939,16 +5940,16 @@
         <v>59</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>37</v>
@@ -5959,10 +5960,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5985,16 +5986,16 @@
         <v>48</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6044,7 +6045,7 @@
         <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>35</v>
@@ -6059,7 +6060,7 @@
         <v>60</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>37</v>
@@ -6068,7 +6069,7 @@
         <v>68</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>37</v>
@@ -6076,10 +6077,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6102,16 +6103,16 @@
         <v>48</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6161,7 +6162,7 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>35</v>
@@ -6173,19 +6174,19 @@
         <v>59</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>37</v>
@@ -6193,14 +6194,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6219,19 +6220,19 @@
         <v>48</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>37</v>
@@ -6280,7 +6281,7 @@
         <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>35</v>
@@ -6292,16 +6293,16 @@
         <v>59</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>37</v>
@@ -6312,10 +6313,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6341,13 +6342,13 @@
         <v>70</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6373,13 +6374,13 @@
         <v>37</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>37</v>
@@ -6397,7 +6398,7 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>47</v>
@@ -6412,27 +6413,27 @@
         <v>60</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6455,16 +6456,16 @@
         <v>48</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6490,13 +6491,13 @@
         <v>37</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>37</v>
@@ -6514,7 +6515,7 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>35</v>
@@ -6529,13 +6530,13 @@
         <v>60</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>37</v>
@@ -6546,10 +6547,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6572,16 +6573,16 @@
         <v>48</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6607,11 +6608,11 @@
         <v>37</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>37</v>
@@ -6629,7 +6630,7 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>35</v>
@@ -6644,16 +6645,16 @@
         <v>60</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>37</v>
@@ -6661,10 +6662,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6687,16 +6688,16 @@
         <v>48</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6722,11 +6723,11 @@
         <v>37</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>37</v>
@@ -6744,7 +6745,7 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>35</v>
@@ -6759,16 +6760,16 @@
         <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>37</v>
@@ -6776,10 +6777,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6802,16 +6803,16 @@
         <v>48</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6837,10 +6838,10 @@
         <v>37</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>37</v>
@@ -6861,7 +6862,7 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>35</v>
@@ -6876,27 +6877,27 @@
         <v>60</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6919,16 +6920,16 @@
         <v>48</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6954,19 +6955,19 @@
         <v>37</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>297</v>
+        <v>37</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>298</v>
@@ -6978,7 +6979,7 @@
         <v>101</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>35</v>
@@ -6996,16 +6997,16 @@
         <v>299</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>300</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" hidden="true">
@@ -7013,7 +7014,7 @@
         <v>301</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>302</v>
@@ -7038,16 +7039,16 @@
         <v>48</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>303</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7073,13 +7074,13 @@
         <v>37</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>37</v>
@@ -7097,7 +7098,7 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>35</v>
@@ -7115,16 +7116,16 @@
         <v>299</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>300</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" hidden="true">
@@ -7155,13 +7156,13 @@
         <v>37</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7212,7 +7213,7 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
@@ -7276,7 +7277,7 @@
         <v>96</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>98</v>
@@ -7329,7 +7330,7 @@
         <v>101</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>35</v>
@@ -7506,13 +7507,13 @@
         <v>37</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7563,7 +7564,7 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>35</v>
@@ -7627,7 +7628,7 @@
         <v>96</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>98</v>
@@ -7680,7 +7681,7 @@
         <v>101</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>35</v>
@@ -7857,7 +7858,7 @@
         <v>48</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>335</v>
@@ -7983,7 +7984,7 @@
         <v>344</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>345</v>
@@ -8093,7 +8094,7 @@
         <v>48</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>351</v>
@@ -8102,7 +8103,7 @@
         <v>352</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>353</v>
@@ -8331,7 +8332,7 @@
         <v>48</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>369</v>
@@ -8427,7 +8428,7 @@
         <v>376</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>377</v>
@@ -8452,16 +8453,16 @@
         <v>48</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>378</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8487,13 +8488,13 @@
         <v>37</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>37</v>
@@ -8511,7 +8512,7 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>35</v>
@@ -8529,16 +8530,16 @@
         <v>299</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>300</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" hidden="true">
@@ -8569,13 +8570,13 @@
         <v>37</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8626,7 +8627,7 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
@@ -8690,7 +8691,7 @@
         <v>96</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>98</v>
@@ -8743,7 +8744,7 @@
         <v>101</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>35</v>
@@ -8920,7 +8921,7 @@
         <v>48</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>369</v>
@@ -9154,13 +9155,13 @@
         <v>37</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9211,7 +9212,7 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>35</v>
@@ -9275,7 +9276,7 @@
         <v>96</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>98</v>
@@ -9328,7 +9329,7 @@
         <v>101</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>35</v>
@@ -9445,7 +9446,7 @@
         <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>35</v>
@@ -9562,7 +9563,7 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>35</v>
@@ -9679,7 +9680,7 @@
         <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>35</v>
@@ -9796,7 +9797,7 @@
         <v>37</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>35</v>
@@ -9854,7 +9855,7 @@
         <v>48</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>413</v>
@@ -10203,7 +10204,7 @@
         <v>48</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>433</v>
@@ -10212,7 +10213,7 @@
         <v>434</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10238,7 +10239,7 @@
         <v>37</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Y70" t="s" s="2">
         <v>435</v>
@@ -10280,10 +10281,10 @@
         <v>436</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>437</v>
@@ -10320,7 +10321,7 @@
         <v>48</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>439</v>
@@ -10329,7 +10330,7 @@
         <v>440</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10355,7 +10356,7 @@
         <v>37</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Y71" t="s" s="2">
         <v>441</v>
@@ -10397,10 +10398,10 @@
         <v>443</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>37</v>
@@ -10625,7 +10626,7 @@
         <v>59</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>457</v>
@@ -10671,7 +10672,7 @@
         <v>48</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L74" t="s" s="2">
         <v>463</v>
@@ -10680,7 +10681,7 @@
         <v>464</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10742,7 +10743,7 @@
         <v>59</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>465</v>
@@ -10788,7 +10789,7 @@
         <v>48</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L75" t="s" s="2">
         <v>471</v>
@@ -10797,7 +10798,7 @@
         <v>472</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10859,7 +10860,7 @@
         <v>59</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>473</v>
@@ -10914,7 +10915,7 @@
         <v>480</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10976,7 +10977,7 @@
         <v>59</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>481</v>
@@ -11031,7 +11032,7 @@
         <v>487</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11093,7 +11094,7 @@
         <v>59</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>488</v>
@@ -11139,7 +11140,7 @@
         <v>48</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>492</v>
@@ -11148,7 +11149,7 @@
         <v>493</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11174,7 +11175,7 @@
         <v>37</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Y78" t="s" s="2">
         <v>494</v>
@@ -11216,10 +11217,10 @@
         <v>496</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>497</v>
@@ -11488,13 +11489,13 @@
         <v>37</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11545,7 +11546,7 @@
         <v>37</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>35</v>
@@ -11609,7 +11610,7 @@
         <v>96</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>98</v>
@@ -11662,7 +11663,7 @@
         <v>101</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>35</v>
@@ -11839,7 +11840,7 @@
         <v>37</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>520</v>
@@ -11848,7 +11849,7 @@
         <v>521</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11956,7 +11957,7 @@
         <v>37</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>525</v>
@@ -11965,7 +11966,7 @@
         <v>526</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12033,10 +12034,10 @@
         <v>527</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>528</v>
@@ -12073,7 +12074,7 @@
         <v>37</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L86" t="s" s="2">
         <v>530</v>
@@ -12082,7 +12083,7 @@
         <v>531</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12305,13 +12306,13 @@
         <v>37</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12362,7 +12363,7 @@
         <v>37</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>35</v>
@@ -12426,7 +12427,7 @@
         <v>96</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N89" t="s" s="2">
         <v>98</v>
@@ -12479,7 +12480,7 @@
         <v>101</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>35</v>
@@ -12656,7 +12657,7 @@
         <v>37</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L91" t="s" s="2">
         <v>542</v>
@@ -12665,7 +12666,7 @@
         <v>543</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12773,7 +12774,7 @@
         <v>37</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L92" t="s" s="2">
         <v>546</v>
@@ -12782,7 +12783,7 @@
         <v>547</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12850,10 +12851,10 @@
         <v>550</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>37</v>
